--- a/05-apis/Starter_Code/Resources/plaid_datafames.xlsx
+++ b/05-apis/Starter_Code/Resources/plaid_datafames.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland.Ferrao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland.Ferrao\Desktop\Desktop\Clients\Knowledge repo\Columbia fintech\Fintech\fintech\05-apis\Starter_Code\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8610" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="institution_list" sheetId="2" r:id="rId1"/>
     <sheet name="fetch_accounts" sheetId="1" r:id="rId2"/>
     <sheet name="transaction_response" sheetId="3" r:id="rId3"/>
     <sheet name="data" sheetId="4" r:id="rId4"/>
+    <sheet name="income_response" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="308">
   <si>
     <t>accounts</t>
   </si>
@@ -918,6 +919,39 @@
   </si>
   <si>
     <t xml:space="preserve">   'unofficial_currency_code': None}]}</t>
+  </si>
+  <si>
+    <t>{'income': {'income_streams': [{'confidence': 0.99,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'days': 690,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'monthly_income': 500,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'name': 'UNITED AIRLINES'}],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'last_year_income': 6000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'last_year_income_before_tax': 7285,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'max_number_of_overlapping_income_streams': 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'number_of_income_streams': 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'projected_yearly_income': 6085,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'projected_yearly_income_before_tax': 7389},</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'request_id': 'Nw6f3v6gjpeQeDe'}</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9277,4 +9311,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>